--- a/_data/DOGEUSDT_1d.xlsx
+++ b/_data/DOGEUSDT_1d.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20421,6 +20421,126 @@
         <v>300567892</v>
       </c>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B1002">
+        <v>0.10037</v>
+      </c>
+      <c r="C1002">
+        <v>0.10315</v>
+      </c>
+      <c r="D1002">
+        <v>0.09697</v>
+      </c>
+      <c r="E1002">
+        <v>0.10177</v>
+      </c>
+      <c r="F1002">
+        <v>628171409</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1003">
+        <v>0.10177</v>
+      </c>
+      <c r="C1003">
+        <v>0.10239</v>
+      </c>
+      <c r="D1003">
+        <v>0.10035</v>
+      </c>
+      <c r="E1003">
+        <v>0.10128</v>
+      </c>
+      <c r="F1003">
+        <v>261630981</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1004">
+        <v>0.10128</v>
+      </c>
+      <c r="C1004">
+        <v>0.10153</v>
+      </c>
+      <c r="D1004">
+        <v>0.09726</v>
+      </c>
+      <c r="E1004">
+        <v>0.0979</v>
+      </c>
+      <c r="F1004">
+        <v>257855681</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1005">
+        <v>0.09508</v>
+      </c>
+      <c r="C1005">
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="D1005">
+        <v>0.09408999999999999</v>
+      </c>
+      <c r="E1005">
+        <v>0.09912</v>
+      </c>
+      <c r="F1005">
+        <v>456484773</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1006">
+        <v>0.09912</v>
+      </c>
+      <c r="C1006">
+        <v>0.10081</v>
+      </c>
+      <c r="D1006">
+        <v>0.09639</v>
+      </c>
+      <c r="E1006">
+        <v>0.09676999999999999</v>
+      </c>
+      <c r="F1006">
+        <v>353919096</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1007">
+        <v>0.09678</v>
+      </c>
+      <c r="C1007">
+        <v>0.09951</v>
+      </c>
+      <c r="D1007">
+        <v>0.09184</v>
+      </c>
+      <c r="E1007">
+        <v>0.09795</v>
+      </c>
+      <c r="F1007">
+        <v>632007969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
